--- a/$PL.xlsx
+++ b/$PL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilsonmccall/Desktop/$MODELZ/$PL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256D035B-7219-D841-9D71-2E5C5151F69F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A29D9F-5A40-3A48-9B5A-63CD4ABF136D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="820" windowWidth="24200" windowHeight="18640" xr2:uid="{BBC8F085-B4C0-744C-A37E-972BC041153F}"/>
+    <workbookView xWindow="260" yWindow="800" windowWidth="30920" windowHeight="18640" xr2:uid="{BBC8F085-B4C0-744C-A37E-972BC041153F}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>COGS</t>
   </si>
@@ -206,10 +206,10 @@
     <t>Q2/24</t>
   </si>
   <si>
-    <t>REV</t>
-  </si>
-  <si>
     <t>Terminal Net Inc</t>
+  </si>
+  <si>
+    <t>OpEx y/y</t>
   </si>
 </sst>
 </file>
@@ -304,7 +304,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -325,10 +325,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -379,6 +380,56 @@
         <a:xfrm>
           <a:off x="6337300" y="3225800"/>
           <a:ext cx="0" cy="4013200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1785B51A-3020-3048-9731-0CA3CEB8CEF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14147800" y="495300"/>
+          <a:ext cx="0" cy="2984500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -703,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C775B1A1-E530-3A46-A198-6BBE4EC0825E}">
   <dimension ref="B2:AN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,8 +769,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="23">
-        <v>45019</v>
+      <c r="B2" s="22">
+        <v>45108</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
@@ -782,6 +833,9 @@
       <c r="J5" s="5">
         <v>52975000</v>
       </c>
+      <c r="K5" s="5">
+        <v>52703000</v>
+      </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
@@ -807,6 +861,9 @@
       </c>
       <c r="J6" s="5">
         <v>23915000</v>
+      </c>
+      <c r="K6" s="5">
+        <v>24556000</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
@@ -847,7 +904,7 @@
       </c>
       <c r="K7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28147000</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="0"/>
@@ -891,6 +948,9 @@
       <c r="J8" s="5">
         <v>31831000</v>
       </c>
+      <c r="K8" s="5">
+        <v>28186000</v>
+      </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
@@ -923,6 +983,10 @@
       <c r="J9" s="5">
         <v>39918000</v>
       </c>
+      <c r="K9" s="5">
+        <f>(23125000 + 21528000)</f>
+        <v>44653000</v>
+      </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -962,7 +1026,7 @@
       </c>
       <c r="K10" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>72839000</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" si="2"/>
@@ -1019,7 +1083,7 @@
       </c>
       <c r="K11" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-44692000</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" si="3"/>
@@ -1061,6 +1125,10 @@
         <v>2835000</v>
       </c>
       <c r="J12" s="5"/>
+      <c r="K12" s="5">
+        <f>(4506000 + 5945000 + 104000)</f>
+        <v>10555000</v>
+      </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
@@ -1097,7 +1165,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-34137000</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="5"/>
@@ -1139,6 +1207,9 @@
         <v>-439000</v>
       </c>
       <c r="J14" s="5"/>
+      <c r="K14" s="5">
+        <v>-307000</v>
+      </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
@@ -1177,7 +1248,7 @@
       </c>
       <c r="K15" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-34444000</v>
       </c>
       <c r="L15" s="8">
         <f t="shared" si="7"/>
@@ -1282,70 +1353,70 @@
         <v>191256000</v>
       </c>
       <c r="F20" s="5">
-        <v>258000000</v>
+        <v>231000000</v>
       </c>
       <c r="G20" s="5">
-        <v>390000000</v>
+        <v>300000000</v>
       </c>
       <c r="H20" s="5">
-        <f>G20*I41+G20</f>
-        <v>507000000</v>
+        <f>G20*H34+G20</f>
+        <v>360000000</v>
       </c>
       <c r="I20" s="5">
-        <f>H20*I41+H20</f>
-        <v>659100000</v>
+        <f t="shared" ref="I20:V20" si="8">H20*I34+H20</f>
+        <v>432000000</v>
       </c>
       <c r="J20" s="5">
-        <f>I20*I41+I20</f>
-        <v>856830000</v>
+        <f t="shared" si="8"/>
+        <v>518400000</v>
       </c>
       <c r="K20" s="5">
-        <f>J20*I41+J20</f>
-        <v>1113879000</v>
+        <f t="shared" si="8"/>
+        <v>622080000</v>
       </c>
       <c r="L20" s="5">
-        <f>K20*I41+K20</f>
-        <v>1448042700</v>
+        <f t="shared" si="8"/>
+        <v>684288000</v>
       </c>
       <c r="M20" s="5">
-        <f>L20*J41+L20</f>
-        <v>1592846970</v>
+        <f t="shared" si="8"/>
+        <v>752716800</v>
       </c>
       <c r="N20" s="5">
-        <f>M20*J41+M20</f>
-        <v>1752131667</v>
+        <f t="shared" si="8"/>
+        <v>827988480</v>
       </c>
       <c r="O20" s="5">
-        <f>N20*J41+N20</f>
-        <v>1927344833.7</v>
+        <f t="shared" si="8"/>
+        <v>910787328</v>
       </c>
       <c r="P20" s="5">
-        <f>O20*J41+O20</f>
-        <v>2120079317.0700002</v>
+        <f t="shared" si="8"/>
+        <v>1001866060.8</v>
       </c>
       <c r="Q20" s="5">
-        <f>P20*J41+P20</f>
-        <v>2332087248.7770004</v>
+        <f t="shared" si="8"/>
+        <v>1102052666.8799999</v>
       </c>
       <c r="R20" s="5">
-        <f>Q20*J41+Q20</f>
-        <v>2565295973.6547003</v>
+        <f t="shared" si="8"/>
+        <v>1212257933.5679998</v>
       </c>
       <c r="S20" s="5">
-        <f>R20*J41+R20</f>
-        <v>2821825571.0201702</v>
+        <f t="shared" si="8"/>
+        <v>1333483726.9247999</v>
       </c>
       <c r="T20" s="5">
-        <f>S20*J41+S20</f>
-        <v>3104008128.1221871</v>
+        <f t="shared" si="8"/>
+        <v>1466832099.61728</v>
       </c>
       <c r="U20" s="5">
-        <f>T20*J41+T20</f>
-        <v>3414408940.9344058</v>
+        <f t="shared" si="8"/>
+        <v>1613515309.5790081</v>
       </c>
       <c r="V20" s="5">
-        <f>U20*J41+U20</f>
-        <v>3755849835.0278463</v>
+        <f t="shared" si="8"/>
+        <v>1774866840.5369089</v>
       </c>
     </row>
     <row r="21" spans="2:40" x14ac:dyDescent="0.2">
@@ -1363,71 +1434,71 @@
       </c>
       <c r="F21" s="6">
         <f>F20-F22</f>
-        <v>129000000</v>
+        <v>115500000</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" ref="G21:V21" si="8">G20-G22</f>
-        <v>195000000</v>
+        <f t="shared" ref="G21:V21" si="9">G20-G22</f>
+        <v>120000000</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="8"/>
-        <v>202800000</v>
+        <f t="shared" si="9"/>
+        <v>108000000.00000003</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="8"/>
-        <v>263640000</v>
+        <f t="shared" si="9"/>
+        <v>129600000</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="8"/>
-        <v>342732000</v>
+        <f t="shared" si="9"/>
+        <v>155520000</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="8"/>
-        <v>445551600</v>
+        <f t="shared" si="9"/>
+        <v>186624000</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="8"/>
-        <v>434412810.00000012</v>
+        <f t="shared" si="9"/>
+        <v>205286400.00000006</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="8"/>
-        <v>477854091</v>
+        <f t="shared" si="9"/>
+        <v>225815040.00000006</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="8"/>
-        <v>525639500.10000014</v>
+        <f t="shared" si="9"/>
+        <v>248396544</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="8"/>
-        <v>578203450.11000013</v>
+        <f t="shared" si="9"/>
+        <v>273236198.4000001</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="8"/>
-        <v>636023795.12100005</v>
+        <f t="shared" si="9"/>
+        <v>300559818.24000001</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" si="8"/>
-        <v>699626174.63310027</v>
+        <f t="shared" si="9"/>
+        <v>330615800.06400001</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" si="8"/>
-        <v>769588792.09641027</v>
+        <f t="shared" si="9"/>
+        <v>363677380.0704</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" si="8"/>
-        <v>846547671.30605125</v>
+        <f t="shared" si="9"/>
+        <v>400045118.07744002</v>
       </c>
       <c r="T21" s="6">
-        <f t="shared" si="8"/>
-        <v>931202438.43665648</v>
+        <f t="shared" si="9"/>
+        <v>440049629.88518405</v>
       </c>
       <c r="U21" s="6">
-        <f t="shared" si="8"/>
-        <v>1024322682.2803221</v>
+        <f t="shared" si="9"/>
+        <v>484054592.87370253</v>
       </c>
       <c r="V21" s="6">
-        <f t="shared" si="8"/>
-        <v>1126754950.5083542</v>
+        <f t="shared" si="9"/>
+        <v>532460052.16107273</v>
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.2">
@@ -1439,80 +1510,80 @@
         <v>25785000</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" ref="D22:E22" si="9">D20-D21</f>
+        <f t="shared" ref="D22:E22" si="10">D20-D21</f>
         <v>48222000</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>94008000</v>
       </c>
       <c r="F22" s="5">
         <f>F20*F35</f>
-        <v>129000000</v>
+        <v>115500000</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" ref="G22:V22" si="10">G20*G35</f>
-        <v>195000000</v>
+        <f t="shared" ref="G22:V22" si="11">G20*G35</f>
+        <v>180000000</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="10"/>
-        <v>304200000</v>
+        <f t="shared" si="11"/>
+        <v>251999999.99999997</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="10"/>
-        <v>395460000</v>
+        <f t="shared" si="11"/>
+        <v>302400000</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="10"/>
-        <v>514098000</v>
+        <f t="shared" si="11"/>
+        <v>362880000</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="10"/>
-        <v>668327400</v>
+        <f t="shared" si="11"/>
+        <v>435456000</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="10"/>
-        <v>1013629889.9999999</v>
+        <f t="shared" si="11"/>
+        <v>479001599.99999994</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="10"/>
-        <v>1114992879</v>
+        <f t="shared" si="11"/>
+        <v>526901759.99999994</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="10"/>
-        <v>1226492166.8999999</v>
+        <f t="shared" si="11"/>
+        <v>579591936</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="10"/>
-        <v>1349141383.5899999</v>
+        <f t="shared" si="11"/>
+        <v>637551129.5999999</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="10"/>
-        <v>1484055521.9490001</v>
+        <f t="shared" si="11"/>
+        <v>701306242.55999994</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" si="10"/>
-        <v>1632461074.1439002</v>
+        <f t="shared" si="11"/>
+        <v>771436866.81599987</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="10"/>
-        <v>1795707181.55829</v>
+        <f t="shared" si="11"/>
+        <v>848580553.49759984</v>
       </c>
       <c r="S22" s="5">
-        <f t="shared" si="10"/>
-        <v>1975277899.714119</v>
+        <f t="shared" si="11"/>
+        <v>933438608.8473599</v>
       </c>
       <c r="T22" s="5">
-        <f t="shared" si="10"/>
-        <v>2172805689.6855307</v>
+        <f t="shared" si="11"/>
+        <v>1026782469.732096</v>
       </c>
       <c r="U22" s="5">
-        <f t="shared" si="10"/>
-        <v>2390086258.6540837</v>
+        <f t="shared" si="11"/>
+        <v>1129460716.7053056</v>
       </c>
       <c r="V22" s="5">
-        <f t="shared" si="10"/>
-        <v>2629094884.5194921</v>
+        <f t="shared" si="11"/>
+        <v>1242406788.3758361</v>
       </c>
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.2">
@@ -1528,74 +1599,23 @@
       <c r="E23" s="5">
         <v>110916000</v>
       </c>
-      <c r="F23" s="6">
-        <f>E23*I39+E23</f>
-        <v>133099200</v>
-      </c>
-      <c r="G23" s="6">
-        <f>F23*I39+F23</f>
-        <v>159719040</v>
-      </c>
-      <c r="H23" s="6">
-        <f>G23*I39+G23</f>
-        <v>191662848</v>
-      </c>
-      <c r="I23" s="6">
-        <f>H23*J39+H23</f>
-        <v>205079247.36000001</v>
-      </c>
-      <c r="J23" s="6">
-        <f>I23*J39+I23</f>
-        <v>219434794.67520002</v>
-      </c>
-      <c r="K23" s="6">
-        <f>J23*J39+J23</f>
-        <v>234795230.30246401</v>
-      </c>
-      <c r="L23" s="6">
-        <f>K23*J39+K23</f>
-        <v>251230896.4236365</v>
-      </c>
-      <c r="M23" s="6">
-        <f>L23*J39+L23</f>
-        <v>268817059.17329103</v>
-      </c>
-      <c r="N23" s="6">
-        <f>M23*J39+M23</f>
-        <v>287634253.3154214</v>
-      </c>
-      <c r="O23" s="6">
-        <f>N23*J39+N23</f>
-        <v>307768651.04750091</v>
-      </c>
-      <c r="P23" s="6">
-        <f>O23*J39+O23</f>
-        <v>329312456.62082595</v>
-      </c>
-      <c r="Q23" s="6">
-        <f>P23*J39+P23</f>
-        <v>352364328.58428377</v>
-      </c>
-      <c r="R23" s="6">
-        <f>Q23*J39+Q23</f>
-        <v>377029831.58518362</v>
-      </c>
-      <c r="S23" s="6">
-        <f>R23*J39+R23</f>
-        <v>403421919.79614645</v>
-      </c>
-      <c r="T23" s="6">
-        <f>S23*J39+S23</f>
-        <v>431661454.18187672</v>
-      </c>
-      <c r="U23" s="6">
-        <f>T23*J39+T23</f>
-        <v>461877755.97460806</v>
-      </c>
-      <c r="V23" s="6">
-        <f>U23*J39+U23</f>
-        <v>494209198.89283061</v>
-      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
     </row>
     <row r="24" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
@@ -1613,74 +1633,23 @@
         <f>(78020000+80747000)</f>
         <v>158767000</v>
       </c>
-      <c r="F24" s="6">
-        <f>E24*I40+E24</f>
-        <v>190520400</v>
-      </c>
-      <c r="G24" s="6">
-        <f>F24*I40+F24</f>
-        <v>228624480</v>
-      </c>
-      <c r="H24" s="6">
-        <f>G24*I40+G24</f>
-        <v>274349376</v>
-      </c>
-      <c r="I24" s="6">
-        <f>H24*J40+H24</f>
-        <v>293553832.31999999</v>
-      </c>
-      <c r="J24" s="6">
-        <f>I24*J40+I24</f>
-        <v>314102600.58239996</v>
-      </c>
-      <c r="K24" s="6">
-        <f>J24*J40+J24</f>
-        <v>336089782.62316799</v>
-      </c>
-      <c r="L24" s="6">
-        <f>K24*J40+K24</f>
-        <v>359616067.40678978</v>
-      </c>
-      <c r="M24" s="6">
-        <f>L24*J40+L24</f>
-        <v>384789192.12526506</v>
-      </c>
-      <c r="N24" s="6">
-        <f>M24*J40+M24</f>
-        <v>411724435.57403362</v>
-      </c>
-      <c r="O24" s="6">
-        <f>N24*J40+N24</f>
-        <v>440545146.06421596</v>
-      </c>
-      <c r="P24" s="6">
-        <f>O24*J40+O24</f>
-        <v>471383306.28871107</v>
-      </c>
-      <c r="Q24" s="6">
-        <f>P24*J40+P24</f>
-        <v>504380137.72892088</v>
-      </c>
-      <c r="R24" s="6">
-        <f>Q24*J40+Q24</f>
-        <v>539686747.36994529</v>
-      </c>
-      <c r="S24" s="6">
-        <f>R24*J40+R24</f>
-        <v>577464819.68584144</v>
-      </c>
-      <c r="T24" s="6">
-        <f>S24*J40+S24</f>
-        <v>617887357.0638504</v>
-      </c>
-      <c r="U24" s="6">
-        <f>T24*J40+T24</f>
-        <v>661139472.05831993</v>
-      </c>
-      <c r="V24" s="6">
-        <f>U24*J40+U24</f>
-        <v>707419235.10240233</v>
-      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
     </row>
     <row r="25" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
@@ -1691,80 +1660,80 @@
         <v>113227000</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" ref="D25:V25" si="11">D23+D24</f>
+        <f t="shared" ref="D25:V25" si="12">D23+D24</f>
         <v>176273000</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>269683000</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="11"/>
-        <v>323619600</v>
+        <f>E25*F37+E25</f>
+        <v>310135450</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="11"/>
-        <v>388343520</v>
+        <f t="shared" ref="G25:V25" si="13">F25*G37+F25</f>
+        <v>341148995</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="11"/>
-        <v>466012224</v>
+        <f t="shared" si="13"/>
+        <v>351383464.85000002</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="11"/>
-        <v>498633079.68000001</v>
+        <f t="shared" si="13"/>
+        <v>361924968.79550004</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="11"/>
-        <v>533537395.25759995</v>
+        <f t="shared" si="13"/>
+        <v>372782717.85936505</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="11"/>
-        <v>570885012.925632</v>
+        <f t="shared" si="13"/>
+        <v>383966199.39514601</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="11"/>
-        <v>610846963.83042622</v>
+        <f t="shared" si="13"/>
+        <v>395485185.37700039</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" si="11"/>
-        <v>653606251.29855609</v>
+        <f t="shared" si="13"/>
+        <v>407349740.93831038</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" si="11"/>
-        <v>699358688.88945508</v>
+        <f t="shared" si="13"/>
+        <v>419570233.16645968</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" si="11"/>
-        <v>748313797.11171687</v>
+        <f t="shared" si="13"/>
+        <v>432157340.16145349</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" si="11"/>
-        <v>800695762.90953708</v>
+        <f t="shared" si="13"/>
+        <v>445122060.36629707</v>
       </c>
       <c r="Q25" s="5">
-        <f t="shared" si="11"/>
-        <v>856744466.31320465</v>
+        <f t="shared" si="13"/>
+        <v>458475722.17728597</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="11"/>
-        <v>916716578.95512891</v>
+        <f t="shared" si="13"/>
+        <v>472229993.84260452</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" si="11"/>
-        <v>980886739.48198795</v>
+        <f t="shared" si="13"/>
+        <v>486396893.65788263</v>
       </c>
       <c r="T25" s="5">
-        <f t="shared" si="11"/>
-        <v>1049548811.2457271</v>
+        <f t="shared" si="13"/>
+        <v>500988800.46761912</v>
       </c>
       <c r="U25" s="5">
-        <f t="shared" si="11"/>
-        <v>1123017228.032928</v>
+        <f t="shared" si="13"/>
+        <v>516018464.48164767</v>
       </c>
       <c r="V25" s="5">
-        <f t="shared" si="11"/>
-        <v>1201628433.9952331</v>
+        <f t="shared" si="13"/>
+        <v>531499018.4160971</v>
       </c>
     </row>
     <row r="26" spans="2:40" x14ac:dyDescent="0.2">
@@ -1772,84 +1741,84 @@
         <v>6</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" ref="C26:J26" si="12">C22-C25</f>
+        <f t="shared" ref="C26:J26" si="14">C22-C25</f>
         <v>-87442000</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-128051000</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-175675000</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="12"/>
-        <v>-194619600</v>
+        <f t="shared" si="14"/>
+        <v>-194635450</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="12"/>
-        <v>-193343520</v>
+        <f t="shared" si="14"/>
+        <v>-161148995</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="12"/>
-        <v>-161812224</v>
+        <f t="shared" si="14"/>
+        <v>-99383464.850000054</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="12"/>
-        <v>-103173079.68000001</v>
+        <f t="shared" si="14"/>
+        <v>-59524968.79550004</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="12"/>
-        <v>-19439395.25759995</v>
+        <f t="shared" si="14"/>
+        <v>-9902717.859365046</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" ref="K26:V26" si="13">K22-K25</f>
-        <v>97442387.074368</v>
+        <f t="shared" ref="K26:V26" si="15">K22-K25</f>
+        <v>51489800.604853988</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="13"/>
-        <v>402782926.16957366</v>
+        <f t="shared" si="15"/>
+        <v>83516414.622999549</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="13"/>
-        <v>461386627.70144391</v>
+        <f t="shared" si="15"/>
+        <v>119552019.06168956</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="13"/>
-        <v>527133478.01054478</v>
+        <f t="shared" si="15"/>
+        <v>160021702.83354032</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="13"/>
-        <v>600827586.47828305</v>
+        <f t="shared" si="15"/>
+        <v>205393789.43854642</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="13"/>
-        <v>683359759.03946304</v>
+        <f t="shared" si="15"/>
+        <v>256184182.19370288</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" si="13"/>
-        <v>775716607.83069551</v>
+        <f t="shared" si="15"/>
+        <v>312961144.6387139</v>
       </c>
       <c r="R26" s="5">
-        <f t="shared" si="13"/>
-        <v>878990602.6031611</v>
+        <f t="shared" si="15"/>
+        <v>376350559.65499532</v>
       </c>
       <c r="S26" s="5">
-        <f t="shared" si="13"/>
-        <v>994391160.232131</v>
+        <f t="shared" si="15"/>
+        <v>447041715.18947726</v>
       </c>
       <c r="T26" s="5">
-        <f t="shared" si="13"/>
-        <v>1123256878.4398036</v>
+        <f t="shared" si="15"/>
+        <v>525793669.26447684</v>
       </c>
       <c r="U26" s="5">
-        <f t="shared" si="13"/>
-        <v>1267069030.6211557</v>
+        <f t="shared" si="15"/>
+        <v>613442252.22365785</v>
       </c>
       <c r="V26" s="5">
-        <f t="shared" si="13"/>
-        <v>1427466450.5242591</v>
+        <f t="shared" si="15"/>
+        <v>710907769.95973897</v>
       </c>
     </row>
     <row r="27" spans="2:40" x14ac:dyDescent="0.2">
@@ -1879,76 +1848,76 @@
         <v>-135014000</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" ref="E28:V28" si="14">E26+E27</f>
+        <f t="shared" ref="E28:V28" si="16">E26+E27</f>
         <v>-161119000</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="14"/>
-        <v>-194619600</v>
+        <f t="shared" si="16"/>
+        <v>-194635450</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="14"/>
-        <v>-193343520</v>
+        <f t="shared" si="16"/>
+        <v>-161148995</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="14"/>
-        <v>-161812224</v>
+        <f t="shared" si="16"/>
+        <v>-99383464.850000054</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="14"/>
-        <v>-103173079.68000001</v>
+        <f t="shared" si="16"/>
+        <v>-59524968.79550004</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="14"/>
-        <v>-19439395.25759995</v>
+        <f t="shared" si="16"/>
+        <v>-9902717.859365046</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="14"/>
-        <v>97442387.074368</v>
+        <f t="shared" si="16"/>
+        <v>51489800.604853988</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" si="14"/>
-        <v>402782926.16957366</v>
+        <f t="shared" si="16"/>
+        <v>83516414.622999549</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" si="14"/>
-        <v>461386627.70144391</v>
+        <f t="shared" si="16"/>
+        <v>119552019.06168956</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="14"/>
-        <v>527133478.01054478</v>
+        <f t="shared" si="16"/>
+        <v>160021702.83354032</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" si="14"/>
-        <v>600827586.47828305</v>
+        <f t="shared" si="16"/>
+        <v>205393789.43854642</v>
       </c>
       <c r="P28" s="5">
-        <f t="shared" si="14"/>
-        <v>683359759.03946304</v>
+        <f t="shared" si="16"/>
+        <v>256184182.19370288</v>
       </c>
       <c r="Q28" s="5">
-        <f t="shared" si="14"/>
-        <v>775716607.83069551</v>
+        <f t="shared" si="16"/>
+        <v>312961144.6387139</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="14"/>
-        <v>878990602.6031611</v>
+        <f t="shared" si="16"/>
+        <v>376350559.65499532</v>
       </c>
       <c r="S28" s="5">
-        <f t="shared" si="14"/>
-        <v>994391160.232131</v>
+        <f t="shared" si="16"/>
+        <v>447041715.18947726</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" si="14"/>
-        <v>1123256878.4398036</v>
+        <f t="shared" si="16"/>
+        <v>525793669.26447684</v>
       </c>
       <c r="U28" s="5">
-        <f t="shared" si="14"/>
-        <v>1267069030.6211557</v>
+        <f t="shared" si="16"/>
+        <v>613442252.22365785</v>
       </c>
       <c r="V28" s="5">
-        <f t="shared" si="14"/>
-        <v>1427466450.5242591</v>
+        <f t="shared" si="16"/>
+        <v>710907769.95973897</v>
       </c>
     </row>
     <row r="29" spans="2:40" x14ac:dyDescent="0.2">
@@ -1967,51 +1936,51 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5">
         <f>-(K28*C36)</f>
-        <v>-19488477.4148736</v>
+        <v>-10297960.120970799</v>
       </c>
       <c r="L29" s="5">
         <f>-(L28*C36)</f>
-        <v>-80556585.233914733</v>
+        <v>-16703282.92459991</v>
       </c>
       <c r="M29" s="5">
         <f>-(M28*C36)</f>
-        <v>-92277325.540288791</v>
+        <v>-23910403.812337913</v>
       </c>
       <c r="N29" s="5">
         <f>-(N28*C36)</f>
-        <v>-105426695.60210896</v>
+        <v>-32004340.566708066</v>
       </c>
       <c r="O29" s="5">
         <f>-(O28*C36)</f>
-        <v>-120165517.29565662</v>
+        <v>-41078757.88770929</v>
       </c>
       <c r="P29" s="5">
         <f>-(P28*C36)</f>
-        <v>-136671951.80789262</v>
+        <v>-51236836.438740581</v>
       </c>
       <c r="Q29" s="5">
         <f>-(Q28*C36)</f>
-        <v>-155143321.5661391</v>
+        <v>-62592228.927742779</v>
       </c>
       <c r="R29" s="5">
         <f>-(R28*C36)</f>
-        <v>-175798120.52063224</v>
+        <v>-75270111.93099907</v>
       </c>
       <c r="S29" s="5">
         <f>-(S28*C36)</f>
-        <v>-198878232.04642621</v>
+        <v>-89408343.037895456</v>
       </c>
       <c r="T29" s="5">
         <f>-(T28*C36)</f>
-        <v>-224651375.68796074</v>
+        <v>-105158733.85289538</v>
       </c>
       <c r="U29" s="5">
         <f>-(U28*C36)</f>
-        <v>-253413806.12423116</v>
+        <v>-122688450.44473158</v>
       </c>
       <c r="V29" s="5">
         <f>-(V28*C36)</f>
-        <v>-285493290.10485184</v>
+        <v>-142181553.9919478</v>
       </c>
     </row>
     <row r="30" spans="2:40" x14ac:dyDescent="0.2">
@@ -2023,152 +1992,152 @@
         <v>-127103000</v>
       </c>
       <c r="D30" s="10">
-        <f t="shared" ref="D30:V30" si="15">D28+D29</f>
+        <f t="shared" ref="D30:V30" si="17">D28+D29</f>
         <v>-137124000</v>
       </c>
       <c r="E30" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-161966000</v>
       </c>
       <c r="F30" s="10">
-        <f t="shared" si="15"/>
-        <v>-194619600</v>
+        <f t="shared" si="17"/>
+        <v>-194635450</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" si="15"/>
-        <v>-193343520</v>
+        <f t="shared" si="17"/>
+        <v>-161148995</v>
       </c>
       <c r="H30" s="10">
-        <f t="shared" si="15"/>
-        <v>-161812224</v>
+        <f t="shared" si="17"/>
+        <v>-99383464.850000054</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" si="15"/>
-        <v>-103173079.68000001</v>
+        <f t="shared" si="17"/>
+        <v>-59524968.79550004</v>
       </c>
       <c r="J30" s="10">
-        <f t="shared" si="15"/>
-        <v>-19439395.25759995</v>
+        <f t="shared" si="17"/>
+        <v>-9902717.859365046</v>
       </c>
       <c r="K30" s="10">
-        <f t="shared" si="15"/>
-        <v>77953909.6594944</v>
+        <f t="shared" si="17"/>
+        <v>41191840.483883187</v>
       </c>
       <c r="L30" s="10">
-        <f t="shared" si="15"/>
-        <v>322226340.93565893</v>
+        <f t="shared" si="17"/>
+        <v>66813131.698399641</v>
       </c>
       <c r="M30" s="10">
-        <f t="shared" si="15"/>
-        <v>369109302.1611551</v>
+        <f t="shared" si="17"/>
+        <v>95641615.24935165</v>
       </c>
       <c r="N30" s="10">
-        <f t="shared" si="15"/>
-        <v>421706782.40843582</v>
+        <f t="shared" si="17"/>
+        <v>128017362.26683226</v>
       </c>
       <c r="O30" s="10">
-        <f t="shared" si="15"/>
-        <v>480662069.18262643</v>
+        <f t="shared" si="17"/>
+        <v>164315031.55083713</v>
       </c>
       <c r="P30" s="10">
-        <f t="shared" si="15"/>
-        <v>546687807.23157048</v>
+        <f t="shared" si="17"/>
+        <v>204947345.7549623</v>
       </c>
       <c r="Q30" s="10">
-        <f t="shared" si="15"/>
-        <v>620573286.26455641</v>
+        <f t="shared" si="17"/>
+        <v>250368915.71097112</v>
       </c>
       <c r="R30" s="10">
-        <f t="shared" si="15"/>
-        <v>703192482.08252883</v>
+        <f t="shared" si="17"/>
+        <v>301080447.72399628</v>
       </c>
       <c r="S30" s="10">
-        <f t="shared" si="15"/>
-        <v>795512928.18570483</v>
+        <f t="shared" si="17"/>
+        <v>357633372.15158182</v>
       </c>
       <c r="T30" s="10">
-        <f t="shared" si="15"/>
-        <v>898605502.75184286</v>
+        <f t="shared" si="17"/>
+        <v>420634935.41158146</v>
       </c>
       <c r="U30" s="10">
-        <f t="shared" si="15"/>
-        <v>1013655224.4969246</v>
+        <f t="shared" si="17"/>
+        <v>490753801.77892625</v>
       </c>
       <c r="V30" s="10">
-        <f t="shared" si="15"/>
-        <v>1141973160.4194074</v>
+        <f t="shared" si="17"/>
+        <v>568726215.9677912</v>
       </c>
       <c r="W30" s="6">
         <f>V30*I43+V30</f>
-        <v>1130553428.8152132</v>
+        <v>568726215.9677912</v>
       </c>
       <c r="X30" s="6">
         <f>W30*I43+W30</f>
-        <v>1119247894.527061</v>
+        <v>568726215.9677912</v>
       </c>
       <c r="Y30" s="6">
         <f>X30*I43+X30</f>
-        <v>1108055415.5817904</v>
+        <v>568726215.9677912</v>
       </c>
       <c r="Z30" s="6">
         <f>Y30*I43+Y30</f>
-        <v>1096974861.4259725</v>
+        <v>568726215.9677912</v>
       </c>
       <c r="AA30" s="6">
         <f>Z30*I43+Z30</f>
-        <v>1086005112.8117127</v>
+        <v>568726215.9677912</v>
       </c>
       <c r="AB30" s="6">
         <f>AA30*I43+AA30</f>
-        <v>1075145061.6835957</v>
+        <v>568726215.9677912</v>
       </c>
       <c r="AC30" s="6">
         <f>AB30*I43+AB30</f>
-        <v>1064393611.0667597</v>
+        <v>568726215.9677912</v>
       </c>
       <c r="AD30" s="6">
         <f>AC30*I43+AC30</f>
-        <v>1053749674.9560921</v>
+        <v>568726215.9677912</v>
       </c>
       <c r="AE30" s="6">
         <f>AD30*I43+AD30</f>
-        <v>1043212178.2065312</v>
+        <v>568726215.9677912</v>
       </c>
       <c r="AF30" s="6">
         <f>AE30*I43+AE30</f>
-        <v>1032780056.4244659</v>
+        <v>568726215.9677912</v>
       </c>
       <c r="AG30" s="6">
         <f>AF30*I43+AF30</f>
-        <v>1022452255.8602213</v>
+        <v>568726215.9677912</v>
       </c>
       <c r="AH30" s="6">
         <f>AG30*I43+AG30</f>
-        <v>1012227733.3016191</v>
+        <v>568726215.9677912</v>
       </c>
       <c r="AI30" s="6">
         <f>AH30*I43+AH30</f>
-        <v>1002105455.9686029</v>
+        <v>568726215.9677912</v>
       </c>
       <c r="AJ30" s="6">
         <f>AI30*I43+AI30</f>
-        <v>992084401.40891683</v>
+        <v>568726215.9677912</v>
       </c>
       <c r="AK30" s="6">
         <f>AJ30*I43+AJ30</f>
-        <v>982163557.3948276</v>
+        <v>568726215.9677912</v>
       </c>
       <c r="AL30" s="6">
         <f>AK30*I43+AK30</f>
-        <v>972341921.82087934</v>
+        <v>568726215.9677912</v>
       </c>
       <c r="AM30" s="6">
         <f>AL30*I43+AL30</f>
-        <v>962618502.60267055</v>
+        <v>568726215.9677912</v>
       </c>
       <c r="AN30" s="6">
         <f>AM30*I43+AM30</f>
-        <v>952992317.57664382</v>
+        <v>568726215.9677912</v>
       </c>
     </row>
     <row r="31" spans="2:40" x14ac:dyDescent="0.2">
@@ -2180,72 +2149,72 @@
         <v>-0.59965198074787118</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" ref="F31:V31" si="16">F30/F32</f>
-        <v>-0.70770763636363632</v>
+        <f t="shared" ref="F31:V31" si="18">F30/F32</f>
+        <v>-0.70520090579710148</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.70306734545454541</v>
+        <f t="shared" si="18"/>
+        <v>-0.57553212499999995</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.58840808727272731</v>
+        <f t="shared" si="18"/>
+        <v>-0.35494094589285735</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.3751748352</v>
+        <f t="shared" si="18"/>
+        <v>-0.21258917426964299</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" si="16"/>
-        <v>-7.0688710027636187E-2</v>
+        <f t="shared" si="18"/>
+        <v>-3.5366849497732306E-2</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="16"/>
-        <v>0.28346876239816143</v>
+        <f t="shared" si="18"/>
+        <v>0.14711371601386852</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="16"/>
-        <v>1.1717321488569417</v>
+        <f t="shared" si="18"/>
+        <v>0.23861832749428444</v>
       </c>
       <c r="M31" s="5">
-        <f t="shared" si="16"/>
-        <v>1.3422156442223823</v>
+        <f t="shared" si="18"/>
+        <v>0.34157719731911301</v>
       </c>
       <c r="N31" s="5">
-        <f t="shared" si="16"/>
-        <v>1.5334792087579485</v>
+        <f t="shared" si="18"/>
+        <v>0.45720486523868664</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" si="16"/>
-        <v>1.7478620697550051</v>
+        <f t="shared" si="18"/>
+        <v>0.58683939839584687</v>
       </c>
       <c r="P31" s="5">
-        <f t="shared" si="16"/>
-        <v>1.9879556626602564</v>
+        <f t="shared" si="18"/>
+        <v>0.73195480626772247</v>
       </c>
       <c r="Q31" s="5">
-        <f t="shared" si="16"/>
-        <v>2.2566301318711144</v>
+        <f t="shared" si="18"/>
+        <v>0.89417469896775403</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" si="16"/>
-        <v>2.5570635712091958</v>
+        <f t="shared" si="18"/>
+        <v>1.0752873132999867</v>
       </c>
       <c r="S31" s="5">
-        <f t="shared" si="16"/>
-        <v>2.892774284311654</v>
+        <f t="shared" si="18"/>
+        <v>1.2772620433985065</v>
       </c>
       <c r="T31" s="5">
-        <f t="shared" si="16"/>
-        <v>3.267656373643065</v>
+        <f t="shared" si="18"/>
+        <v>1.5022676264699337</v>
       </c>
       <c r="U31" s="5">
-        <f t="shared" si="16"/>
-        <v>3.6860189981706348</v>
+        <f t="shared" si="18"/>
+        <v>1.7526921492104508</v>
       </c>
       <c r="V31" s="5">
-        <f t="shared" si="16"/>
-        <v>4.15262967425239</v>
+        <f t="shared" si="18"/>
+        <v>2.0311650570278257</v>
       </c>
     </row>
     <row r="32" spans="2:40" x14ac:dyDescent="0.2">
@@ -2256,55 +2225,55 @@
         <v>270100000</v>
       </c>
       <c r="F32" s="13">
-        <v>275000000</v>
+        <v>276000000</v>
       </c>
       <c r="G32" s="13">
-        <v>275000000</v>
+        <v>280000000</v>
       </c>
       <c r="H32" s="13">
-        <v>275000000</v>
+        <v>280000000</v>
       </c>
       <c r="I32" s="13">
-        <v>275000000</v>
+        <v>280000000</v>
       </c>
       <c r="J32" s="13">
-        <v>275000000</v>
+        <v>280000000</v>
       </c>
       <c r="K32" s="13">
-        <v>275000000</v>
+        <v>280000000</v>
       </c>
       <c r="L32" s="13">
-        <v>275000000</v>
+        <v>280000000</v>
       </c>
       <c r="M32" s="13">
-        <v>275000000</v>
+        <v>280000000</v>
       </c>
       <c r="N32" s="13">
-        <v>275000000</v>
+        <v>280000000</v>
       </c>
       <c r="O32" s="13">
-        <v>275000000</v>
+        <v>280000000</v>
       </c>
       <c r="P32" s="13">
-        <v>275000000</v>
+        <v>280000000</v>
       </c>
       <c r="Q32" s="13">
-        <v>275000000</v>
+        <v>280000000</v>
       </c>
       <c r="R32" s="13">
-        <v>275000000</v>
+        <v>280000000</v>
       </c>
       <c r="S32" s="13">
-        <v>275000000</v>
+        <v>280000000</v>
       </c>
       <c r="T32" s="13">
-        <v>275000000</v>
+        <v>280000000</v>
       </c>
       <c r="U32" s="13">
-        <v>275000000</v>
+        <v>280000000</v>
       </c>
       <c r="V32" s="13">
-        <v>275000000</v>
+        <v>280000000</v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.2">
@@ -2316,76 +2285,61 @@
         <v>0.15941785663791874</v>
       </c>
       <c r="E34" s="17">
-        <f t="shared" ref="E34:G34" si="17">E20/D20-1</f>
+        <f t="shared" ref="E34:G34" si="19">E20/D20-1</f>
         <v>0.4576439116219162</v>
       </c>
       <c r="F34" s="17">
-        <f t="shared" si="17"/>
-        <v>0.34897728698707486</v>
+        <f t="shared" si="19"/>
+        <v>0.20780524532563693</v>
       </c>
       <c r="G34" s="17">
-        <f t="shared" si="17"/>
-        <v>0.51162790697674421</v>
+        <f t="shared" si="19"/>
+        <v>0.29870129870129869</v>
       </c>
       <c r="H34" s="17">
-        <f>H20/G20-1</f>
-        <v>0.30000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="I34" s="17">
-        <f t="shared" ref="I34:V34" si="18">I20/H20-1</f>
-        <v>0.30000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="J34" s="17">
-        <f t="shared" si="18"/>
-        <v>0.30000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="K34" s="17">
-        <f t="shared" si="18"/>
-        <v>0.30000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="L34" s="17">
-        <f t="shared" si="18"/>
-        <v>0.30000000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="M34" s="17">
-        <f t="shared" si="18"/>
-        <v>0.10000000000000009</v>
+        <v>0.1</v>
       </c>
       <c r="N34" s="17">
-        <f t="shared" si="18"/>
-        <v>0.10000000000000009</v>
+        <v>0.1</v>
       </c>
       <c r="O34" s="17">
-        <f t="shared" si="18"/>
-        <v>0.10000000000000009</v>
+        <v>0.1</v>
       </c>
       <c r="P34" s="17">
-        <f t="shared" si="18"/>
-        <v>0.10000000000000009</v>
+        <v>0.1</v>
       </c>
       <c r="Q34" s="17">
-        <f t="shared" si="18"/>
-        <v>0.10000000000000009</v>
+        <v>0.1</v>
       </c>
       <c r="R34" s="17">
-        <f t="shared" si="18"/>
-        <v>9.9999999999999867E-2</v>
+        <v>0.1</v>
       </c>
       <c r="S34" s="17">
-        <f t="shared" si="18"/>
-        <v>9.9999999999999867E-2</v>
+        <v>0.1</v>
       </c>
       <c r="T34" s="17">
-        <f t="shared" si="18"/>
-        <v>9.9999999999999867E-2</v>
+        <v>0.1</v>
       </c>
       <c r="U34" s="17">
-        <f t="shared" si="18"/>
-        <v>0.10000000000000009</v>
+        <v>0.1</v>
       </c>
       <c r="V34" s="17">
-        <f t="shared" si="18"/>
-        <v>0.10000000000000009</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.2">
@@ -2397,30 +2351,30 @@
         <v>0.22784709458504171</v>
       </c>
       <c r="D35" s="17">
-        <f t="shared" ref="D35:E35" si="19">D22/D20</f>
+        <f t="shared" ref="D35:E35" si="20">D22/D20</f>
         <v>0.36752052069598884</v>
       </c>
       <c r="E35" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.49152967750031373</v>
       </c>
       <c r="F35" s="17">
         <v>0.5</v>
       </c>
       <c r="G35" s="17">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H35" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0.6</v>
+        <v>0.7</v>
+      </c>
+      <c r="I35" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="J35" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="K35" s="17">
+        <v>0.7</v>
       </c>
       <c r="L35" s="1">
         <v>0.7</v>
@@ -2464,84 +2418,130 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="17">
+        <f>D25/C25-1</f>
+        <v>0.55681065470250024</v>
+      </c>
+      <c r="E37" s="17">
+        <f t="shared" ref="E37:F37" si="21">E25/D25-1</f>
+        <v>0.52991666335740595</v>
+      </c>
+      <c r="F37" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="14">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F39" s="11">
-        <v>4</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="J39" s="20">
-        <v>7.0000000000000007E-2</v>
-      </c>
+        <v>3.22</v>
+      </c>
+      <c r="H39" s="23"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="21">
         <f>NPV(C39,E30:AN30)</f>
-        <v>2941168731.6117477</v>
+        <v>1793450711.7209437</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="12">
-        <v>275000000</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="J40" s="20">
-        <v>7.0000000000000007E-2</v>
-      </c>
+        <v>276000000</v>
+      </c>
+      <c r="H40" s="23"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="20">
         <f>C40/F40</f>
-        <v>10.695159024042718</v>
+        <v>6.4980098250758829</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F41" s="11">
         <f>F40*F39</f>
-        <v>1100000000</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I41" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="J41" s="20">
-        <v>0.1</v>
-      </c>
+        <v>888720000</v>
+      </c>
+      <c r="H41" s="23"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F42" s="11">
-        <v>425000000</v>
+        <v>409000000</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.2">
@@ -2549,13 +2549,13 @@
         <v>25</v>
       </c>
       <c r="F43" s="11">
-        <v>110000000</v>
+        <v>120000000</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I43" s="19">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.2">
